--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,102 +40,99 @@
     <t>name</t>
   </si>
   <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>boring</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>worse</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>destroying</t>
   </si>
   <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>fucked</t>
+    <t>bad</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>bad</t>
+    <t>serious</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>serious</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
@@ -151,16 +148,19 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>good</t>
   </si>
   <si>
     <t>important</t>
@@ -169,16 +169,13 @@
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>much</t>
@@ -187,13 +184,19 @@
     <t>social</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
     <t>netflix</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>’</t>
@@ -560,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,10 +635,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -679,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,10 +700,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>0.9444444444444444</v>
@@ -729,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -779,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9242424242424242</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>0.88</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.84</v>
       </c>
       <c r="L7">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9134615384615384</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.7017543859649122</v>
+        <v>0.6</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8421052631578947</v>
+        <v>0.875</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>0.5666666666666667</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,16 +1053,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>0.5517241379310345</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,16 +1103,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>0.52</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13">
         <v>0.4444444444444444</v>
@@ -1179,13 +1182,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>0.4210526315789473</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1232,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7272727272727273</v>
+        <v>0.675</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>0.1311475409836066</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="L15">
         <v>8</v>
@@ -1271,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1282,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7058823529411765</v>
+        <v>0.625</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16">
-        <v>0.1230769230769231</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1332,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6363636363636364</v>
+        <v>0.6</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17">
-        <v>0.08014571948998178</v>
+        <v>0.09016393442622951</v>
       </c>
       <c r="L17">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="M17">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1010</v>
+        <v>999</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1382,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.575</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>0.0286144578313253</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>645</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,13 +1432,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5625</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1447,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K19">
         <v>0.02826855123674912</v>
@@ -1479,13 +1482,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5384615384615384</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>0.01111111111111111</v>
+        <v>0.02259036144578313</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>534</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,13 +1532,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5384615384615384</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>0.008962868117797696</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="L21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1571,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>774</v>
+        <v>532</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1579,13 +1582,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1600,10 +1603,10 @@
         <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K22">
-        <v>0.004032258064516129</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="L22">
         <v>7</v>
@@ -1621,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1729</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1629,13 +1632,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5144927536231884</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1647,7 +1650,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>67</v>
+        <v>6</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23">
+        <v>0.01025641025641026</v>
+      </c>
+      <c r="L23">
+        <v>8</v>
+      </c>
+      <c r="M23">
+        <v>9</v>
+      </c>
+      <c r="N23">
+        <v>0.89</v>
+      </c>
+      <c r="O23">
+        <v>0.11</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>772</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1675,19 +1702,43 @@
       <c r="H24">
         <v>6</v>
       </c>
+      <c r="J24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24">
+        <v>0.003456221198156682</v>
+      </c>
+      <c r="L24">
+        <v>6</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1730</v>
+      </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.45</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1699,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1707,13 +1758,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4375</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1725,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1733,13 +1784,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4285714285714285</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1751,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1759,13 +1810,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.425531914893617</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1777,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1785,13 +1836,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3714285714285714</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1803,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1811,13 +1862,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3529411764705883</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1829,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1837,13 +1888,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3478260869565217</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1855,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1863,13 +1914,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1881,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1889,13 +1940,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2916666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1907,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1915,7 +1966,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2857142857142857</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -1933,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1941,13 +1992,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.25</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1959,33 +2010,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.1794871794871795</v>
-      </c>
-      <c r="C36">
-        <v>14</v>
-      </c>
-      <c r="D36">
-        <v>14</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
